--- a/保守性_DB.xlsx
+++ b/保守性_DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5726dd6ae77f066/デスクトップ/agile_development/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fr/ソフトウェア工学研究室/quality-digital-twin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="848" documentId="11_FBFF41A3BEC773933A013C4D0FCF583D8619F29F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56399D4C-1E4D-4BF4-8EA9-150C8FE8E317}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F70841-38A6-7A4F-B662-940E33B9E6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2420" yWindow="500" windowWidth="32960" windowHeight="23280" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SQuaRE" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="440">
   <si>
     <t>id</t>
   </si>
@@ -2427,12 +2427,16 @@
     <t>テスト実施・停止・再開の自由度をあげるために，テスト再開始性を[目標値]以上にする．</t>
     <phoneticPr fontId="6"/>
   </si>
+  <si>
+    <t>コスト</t>
+    <phoneticPr fontId="6"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2581,7 +2585,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2646,6 +2650,15 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2674,10 +2687,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2971,9 +2980,9 @@
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2984,7 +2993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2995,7 +3004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3006,7 +3015,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -3017,7 +3026,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -3028,7 +3037,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -3039,7 +3048,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -3050,7 +3059,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3061,7 +3070,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -3072,7 +3081,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -3083,7 +3092,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -3094,7 +3103,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -3105,7 +3114,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -3116,7 +3125,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -3139,15 +3148,15 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="3" width="23.375" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3161,7 +3170,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -3175,7 +3184,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -3189,7 +3198,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -3203,7 +3212,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -3217,7 +3226,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -3242,25 +3251,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="6.875" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="27.25" customWidth="1"/>
+    <col min="3" max="3" width="27.1640625" customWidth="1"/>
     <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="25.625" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" customWidth="1"/>
     <col min="6" max="6" width="27.5" customWidth="1"/>
-    <col min="7" max="7" width="35.375" customWidth="1"/>
-    <col min="8" max="8" width="11.375" customWidth="1"/>
-    <col min="9" max="9" width="12.25" customWidth="1"/>
+    <col min="7" max="7" width="35.33203125" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3289,7 +3298,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="55.5" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>60</v>
       </c>
@@ -3318,7 +3327,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="55.5" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>61</v>
       </c>
@@ -3347,7 +3356,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="55.5" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>63</v>
       </c>
@@ -3376,7 +3385,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="55.5" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>334</v>
       </c>
@@ -3405,7 +3414,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="55.5" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>64</v>
       </c>
@@ -3434,7 +3443,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="55.5" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>66</v>
       </c>
@@ -3463,7 +3472,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="55.5" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>67</v>
       </c>
@@ -3492,7 +3501,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="55.5" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>68</v>
       </c>
@@ -3521,7 +3530,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="55.5" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>69</v>
       </c>
@@ -3550,7 +3559,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="55.5" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>71</v>
       </c>
@@ -3579,7 +3588,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="55.5" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>72</v>
       </c>
@@ -3608,7 +3617,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="55.5" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>74</v>
       </c>
@@ -3637,7 +3646,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="55.5" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>76</v>
       </c>
@@ -3666,7 +3675,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="55.5" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>79</v>
       </c>
@@ -3695,7 +3704,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="55.5" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>82</v>
       </c>
@@ -3724,7 +3733,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="55.5" customHeight="1">
       <c r="A17" s="4" t="s">
         <v>84</v>
       </c>
@@ -3753,7 +3762,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="55.5" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>88</v>
       </c>
@@ -3782,10 +3791,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="B19" s="5"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="B20" s="5"/>
     </row>
   </sheetData>
@@ -3797,28 +3806,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="70" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="15.375" customWidth="1"/>
-    <col min="3" max="3" width="34.375" customWidth="1"/>
-    <col min="4" max="4" width="28.25" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" customWidth="1"/>
+    <col min="4" max="4" width="28.1640625" customWidth="1"/>
     <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="6" width="83.25" customWidth="1"/>
+    <col min="6" max="6" width="83.1640625" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
-    <col min="8" max="8" width="13.25" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="14.875" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3849,8 +3858,11 @@
       <c r="J1" s="21" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K1" s="22" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="55.5" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>98</v>
       </c>
@@ -3878,8 +3890,11 @@
       <c r="I2" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K2" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="55.5" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>99</v>
       </c>
@@ -3907,8 +3922,11 @@
       <c r="I3" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K3" s="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="55.5" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>103</v>
       </c>
@@ -3936,8 +3954,11 @@
       <c r="I4" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K4" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="55.5" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>108</v>
       </c>
@@ -3965,8 +3986,11 @@
       <c r="I5" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K5" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="55.5" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>113</v>
       </c>
@@ -3994,8 +4018,11 @@
       <c r="I6" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K6" s="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="55.5" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>117</v>
       </c>
@@ -4023,8 +4050,11 @@
       <c r="I7" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" s="4" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K7" s="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="4" customFormat="1" ht="55.5" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>123</v>
       </c>
@@ -4052,8 +4082,11 @@
       <c r="I8" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" s="4" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K8" s="24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="4" customFormat="1" ht="55.5" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>128</v>
       </c>
@@ -4081,8 +4114,11 @@
       <c r="I9" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K9" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="55.5" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>133</v>
       </c>
@@ -4110,8 +4146,11 @@
       <c r="I10" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K10" s="23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="55.5" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>139</v>
       </c>
@@ -4139,8 +4178,11 @@
       <c r="I11" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K11" s="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="55.5" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>142</v>
       </c>
@@ -4168,8 +4210,11 @@
       <c r="I12" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K12" s="23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="55.5" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>146</v>
       </c>
@@ -4197,8 +4242,11 @@
       <c r="I13" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K13" s="23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="55.5" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>152</v>
       </c>
@@ -4226,8 +4274,11 @@
       <c r="I14" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K14" s="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="55.5" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>158</v>
       </c>
@@ -4255,8 +4306,11 @@
       <c r="I15" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K15" s="23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="55.5" customHeight="1">
       <c r="A16" s="6" t="s">
         <v>163</v>
       </c>
@@ -4284,8 +4338,11 @@
       <c r="I16" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K16" s="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="55.5" customHeight="1">
       <c r="A17" s="6" t="s">
         <v>166</v>
       </c>
@@ -4313,8 +4370,11 @@
       <c r="I17" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K17" s="23">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="55.5" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>170</v>
       </c>
@@ -4342,8 +4402,11 @@
       <c r="I18" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K18" s="23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="55.5" customHeight="1">
       <c r="A19" s="6" t="s">
         <v>176</v>
       </c>
@@ -4371,8 +4434,11 @@
       <c r="I19" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K19" s="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="55.5" customHeight="1">
       <c r="A20" s="4" t="s">
         <v>181</v>
       </c>
@@ -4403,8 +4469,11 @@
       <c r="J20" s="4" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K20" s="23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="55.5" customHeight="1">
       <c r="A21" s="6" t="s">
         <v>186</v>
       </c>
@@ -4435,8 +4504,11 @@
       <c r="J21" s="4" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K21" s="23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="55.5" customHeight="1">
       <c r="A22" s="6" t="s">
         <v>190</v>
       </c>
@@ -4464,8 +4536,11 @@
       <c r="I22" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K22" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="55.5" customHeight="1">
       <c r="A23" s="4" t="s">
         <v>194</v>
       </c>
@@ -4493,8 +4568,11 @@
       <c r="I23" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K23" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="55.5" customHeight="1">
       <c r="A24" s="6" t="s">
         <v>198</v>
       </c>
@@ -4522,8 +4600,11 @@
       <c r="I24" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K24" s="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="55.5" customHeight="1">
       <c r="A25" s="4" t="s">
         <v>202</v>
       </c>
@@ -4551,8 +4632,11 @@
       <c r="I25" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K25" s="23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="55.5" customHeight="1">
       <c r="A26" s="6" t="s">
         <v>208</v>
       </c>
@@ -4580,8 +4664,11 @@
       <c r="I26" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K26" s="23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="55.5" customHeight="1">
       <c r="A27" s="6" t="s">
         <v>214</v>
       </c>
@@ -4609,8 +4696,11 @@
       <c r="I27" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K27" s="23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="55.5" customHeight="1">
       <c r="A28" s="4" t="s">
         <v>218</v>
       </c>
@@ -4638,8 +4728,11 @@
       <c r="I28" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K28" s="23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="55.5" customHeight="1">
       <c r="A29" s="6" t="s">
         <v>219</v>
       </c>
@@ -4667,8 +4760,11 @@
       <c r="I29" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K29" s="23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="55.5" customHeight="1">
       <c r="A30" s="4" t="s">
         <v>220</v>
       </c>
@@ -4696,8 +4792,11 @@
       <c r="I30" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K30" s="23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="55.5" customHeight="1">
       <c r="A31" s="6" t="s">
         <v>308</v>
       </c>
@@ -4725,8 +4824,11 @@
       <c r="I31" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K31" s="23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="55.5" customHeight="1">
       <c r="A32" s="6" t="s">
         <v>325</v>
       </c>
@@ -4754,8 +4856,11 @@
       <c r="I32" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K32" s="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="55.5" customHeight="1">
       <c r="A33" s="4" t="s">
         <v>326</v>
       </c>
@@ -4783,8 +4888,11 @@
       <c r="I33" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K33" s="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="55.5" customHeight="1">
       <c r="A34" s="6" t="s">
         <v>327</v>
       </c>
@@ -4812,8 +4920,11 @@
       <c r="I34" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K34" s="23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="55.5" customHeight="1">
       <c r="A35" s="4" t="s">
         <v>410</v>
       </c>
@@ -4841,8 +4952,11 @@
       <c r="I35" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K35" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="55.5" customHeight="1">
       <c r="A36" s="6" t="s">
         <v>411</v>
       </c>
@@ -4870,8 +4984,11 @@
       <c r="I36" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K36" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="55.5" customHeight="1">
       <c r="A37" s="6" t="s">
         <v>412</v>
       </c>
@@ -4899,8 +5016,11 @@
       <c r="I37" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K37" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="55.5" customHeight="1">
       <c r="A38" s="4" t="s">
         <v>413</v>
       </c>
@@ -4931,8 +5051,11 @@
       <c r="J38" s="4" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K38" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="55.5" customHeight="1">
       <c r="A39" s="6" t="s">
         <v>414</v>
       </c>
@@ -4959,6 +5082,9 @@
       </c>
       <c r="I39" s="5">
         <v>1</v>
+      </c>
+      <c r="K39" s="23">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -4983,41 +5109,41 @@
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="18.25" customWidth="1"/>
-    <col min="4" max="4" width="15.125" customWidth="1"/>
-    <col min="5" max="13" width="25.625" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="5" max="13" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A1" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="26" t="s">
         <v>285</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="25" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="28" t="s">
         <v>293</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-    </row>
-    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+    </row>
+    <row r="2" spans="1:14" ht="18.75" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>282</v>
       </c>
@@ -5030,16 +5156,16 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="27" t="s">
         <v>294</v>
       </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-    </row>
-    <row r="3" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+    </row>
+    <row r="3" spans="1:14" ht="30" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>283</v>
       </c>
@@ -5083,7 +5209,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="55.5" customHeight="1">
       <c r="A4" s="15" t="s">
         <v>311</v>
       </c>
@@ -5155,7 +5281,7 @@
         <v>モジュールの汎用化</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="55.5" customHeight="1">
       <c r="A5" s="15" t="s">
         <v>311</v>
       </c>
@@ -5224,7 +5350,7 @@
         <v>凝集度の向上</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="55.5" customHeight="1">
       <c r="A6" s="15" t="s">
         <v>311</v>
       </c>
@@ -5293,7 +5419,7 @@
         <v>情報隠蔽</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="55.5" customHeight="1">
       <c r="A7" s="15" t="s">
         <v>311</v>
       </c>
@@ -5361,7 +5487,7 @@
         <v>仲介の利用</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="55.5" customHeight="1">
       <c r="A8" s="15" t="s">
         <v>311</v>
       </c>
@@ -5431,7 +5557,7 @@
         <v>結合度の向上</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="55.5" customHeight="1">
       <c r="A9" s="15" t="s">
         <v>311</v>
       </c>
@@ -5497,7 +5623,7 @@
         <v>共通サービスの抽出</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="55.5" customHeight="1">
       <c r="A10" s="15" t="s">
         <v>311</v>
       </c>
@@ -5556,7 +5682,7 @@
         <v>再利用性</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="55.5" customHeight="1">
       <c r="A11" s="15" t="s">
         <v>311</v>
       </c>
@@ -5615,7 +5741,7 @@
         <v>解析性</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="55.5" customHeight="1">
       <c r="A12" s="15" t="s">
         <v>311</v>
       </c>
@@ -5674,7 +5800,7 @@
         <v>解析性</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="55.5" customHeight="1">
       <c r="A13" s="15" t="s">
         <v>311</v>
       </c>
@@ -5733,7 +5859,7 @@
         <v>解析性</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="55.5" customHeight="1">
       <c r="A14" s="15" t="s">
         <v>311</v>
       </c>
@@ -5792,7 +5918,7 @@
         <v>解析性</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="55.5" customHeight="1">
       <c r="A15" s="15" t="s">
         <v>311</v>
       </c>
@@ -5851,7 +5977,7 @@
         <v>解析性</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="55.5" customHeight="1">
       <c r="A16" s="15" t="s">
         <v>311</v>
       </c>
@@ -5910,7 +6036,7 @@
         <v>解析性</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="55.5" customHeight="1">
       <c r="A17" s="15" t="s">
         <v>311</v>
       </c>
@@ -5969,7 +6095,7 @@
         <v>解析性</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="55.5" customHeight="1">
       <c r="A18" s="15" t="s">
         <v>311</v>
       </c>
@@ -6037,7 +6163,7 @@
         <v>既存インタフェースの維持</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="55.5" customHeight="1">
       <c r="A19" s="15" t="s">
         <v>311</v>
       </c>
@@ -6096,7 +6222,7 @@
         <v>修正性</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="55.5" customHeight="1">
       <c r="A20" s="15" t="s">
         <v>311</v>
       </c>
@@ -6162,7 +6288,7 @@
         <v>構成ファイル</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="55.5" customHeight="1">
       <c r="A21" s="15" t="s">
         <v>311</v>
       </c>
@@ -6227,7 +6353,7 @@
         <v>ポリモフィズム</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="55.5" customHeight="1">
       <c r="A22" s="15" t="s">
         <v>311</v>
       </c>
@@ -6286,7 +6412,7 @@
         <v>修正性</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" ht="55.5" customHeight="1">
       <c r="A23" s="15" t="s">
         <v>311</v>
       </c>
@@ -6345,7 +6471,7 @@
         <v>修正性</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="55.5" customHeight="1">
       <c r="A24" s="15" t="s">
         <v>311</v>
       </c>
@@ -6404,7 +6530,7 @@
         <v>修正性</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" ht="55.5" customHeight="1">
       <c r="A25" s="15" t="s">
         <v>311</v>
       </c>
@@ -6463,7 +6589,7 @@
         <v>修正性</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="55.5" customHeight="1">
       <c r="A26" s="15" t="s">
         <v>311</v>
       </c>
@@ -6522,7 +6648,7 @@
         <v>修正性</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="55.5" customHeight="1">
       <c r="A27" s="15" t="s">
         <v>311</v>
       </c>
@@ -6581,7 +6707,7 @@
         <v>修正性</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="55.5" customHeight="1">
       <c r="A28" s="15" t="s">
         <v>311</v>
       </c>
@@ -6638,7 +6764,7 @@
         <v>修正性</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="55.5" customHeight="1">
       <c r="A29" s="15" t="s">
         <v>311</v>
       </c>
@@ -6695,7 +6821,7 @@
         <v>修正性</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="55.5" customHeight="1">
       <c r="A30" s="15" t="s">
         <v>311</v>
       </c>
@@ -6754,7 +6880,7 @@
         <v>修正性</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="248.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="248.25" customHeight="1">
       <c r="A31" s="15" t="s">
         <v>311</v>
       </c>
@@ -6813,7 +6939,7 @@
         <v>試験性</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="90.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="90.75" customHeight="1">
       <c r="A32" s="15" t="s">
         <v>311</v>
       </c>
@@ -6880,7 +7006,7 @@
         <v>実装とインタフェースの分離</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="55.5" customHeight="1">
       <c r="A33" s="15" t="s">
         <v>311</v>
       </c>
@@ -6939,7 +7065,7 @@
         <v>試験性</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="55.5" customHeight="1">
       <c r="A34" s="15" t="s">
         <v>311</v>
       </c>
@@ -7010,7 +7136,7 @@
         <v>特殊なアクセス経路/インタフェース</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="82.5" customHeight="1">
       <c r="A35" s="15" t="s">
         <v>311</v>
       </c>
@@ -7069,7 +7195,7 @@
         <v>試験性</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="55.5" customHeight="1">
       <c r="A36" s="15" t="s">
         <v>311</v>
       </c>
@@ -7141,7 +7267,7 @@
         <v>組み込まれた監視</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="55.5" customHeight="1">
       <c r="A37" s="15"/>
       <c r="B37" s="15">
         <f>request!B40</f>
@@ -7196,7 +7322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="55.5" customHeight="1">
       <c r="A38" s="15"/>
       <c r="B38" s="15">
         <f>request!B41</f>
@@ -7251,7 +7377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="55.5" customHeight="1">
       <c r="A39" s="15"/>
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
@@ -7266,7 +7392,7 @@
       <c r="L39" s="15"/>
       <c r="M39" s="15"/>
     </row>
-    <row r="40" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="55.5" customHeight="1">
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
@@ -7281,7 +7407,7 @@
       <c r="L40" s="15"/>
       <c r="M40" s="15"/>
     </row>
-    <row r="41" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="55.5" customHeight="1">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
@@ -7296,7 +7422,7 @@
       <c r="L41" s="15"/>
       <c r="M41" s="15"/>
     </row>
-    <row r="42" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="55.5" customHeight="1">
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
@@ -7311,7 +7437,7 @@
       <c r="L42" s="15"/>
       <c r="M42" s="15"/>
     </row>
-    <row r="43" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="55.5" customHeight="1">
       <c r="A43" s="15"/>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
@@ -7326,7 +7452,7 @@
       <c r="L43" s="15"/>
       <c r="M43" s="15"/>
     </row>
-    <row r="44" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" ht="55.5" customHeight="1">
       <c r="A44" s="15"/>
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
@@ -7341,7 +7467,7 @@
       <c r="L44" s="15"/>
       <c r="M44" s="15"/>
     </row>
-    <row r="45" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" ht="55.5" customHeight="1">
       <c r="A45" s="15"/>
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
@@ -7356,7 +7482,7 @@
       <c r="L45" s="15"/>
       <c r="M45" s="15"/>
     </row>
-    <row r="46" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" ht="55.5" customHeight="1">
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
@@ -7371,7 +7497,7 @@
       <c r="L46" s="15"/>
       <c r="M46" s="15"/>
     </row>
-    <row r="47" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="55.5" customHeight="1">
       <c r="A47" s="15"/>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
@@ -7386,7 +7512,7 @@
       <c r="L47" s="15"/>
       <c r="M47" s="15"/>
     </row>
-    <row r="48" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" ht="55.5" customHeight="1">
       <c r="A48" s="15"/>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
@@ -7401,7 +7527,7 @@
       <c r="L48" s="15"/>
       <c r="M48" s="15"/>
     </row>
-    <row r="49" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:13" ht="55.5" customHeight="1">
       <c r="A49" s="15"/>
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
@@ -7416,7 +7542,7 @@
       <c r="L49" s="15"/>
       <c r="M49" s="15"/>
     </row>
-    <row r="50" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:13" ht="55.5" customHeight="1">
       <c r="A50" s="15"/>
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
@@ -7431,7 +7557,7 @@
       <c r="L50" s="15"/>
       <c r="M50" s="15"/>
     </row>
-    <row r="51" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:13" ht="55.5" customHeight="1">
       <c r="A51" s="15"/>
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
@@ -7446,7 +7572,7 @@
       <c r="L51" s="15"/>
       <c r="M51" s="15"/>
     </row>
-    <row r="52" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:13" ht="55.5" customHeight="1">
       <c r="A52" s="15"/>
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
@@ -7461,7 +7587,7 @@
       <c r="L52" s="15"/>
       <c r="M52" s="15"/>
     </row>
-    <row r="53" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:13" ht="55.5" customHeight="1">
       <c r="A53" s="15"/>
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
@@ -7476,7 +7602,7 @@
       <c r="L53" s="15"/>
       <c r="M53" s="15"/>
     </row>
-    <row r="54" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:13" ht="55.5" customHeight="1">
       <c r="A54" s="15"/>
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
@@ -7491,7 +7617,7 @@
       <c r="L54" s="15"/>
       <c r="M54" s="15"/>
     </row>
-    <row r="55" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:13" ht="55.5" customHeight="1">
       <c r="A55" s="15"/>
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
@@ -7506,7 +7632,7 @@
       <c r="L55" s="15"/>
       <c r="M55" s="15"/>
     </row>
-    <row r="56" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:13" ht="55.5" customHeight="1">
       <c r="A56" s="15"/>
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
@@ -7521,7 +7647,7 @@
       <c r="L56" s="15"/>
       <c r="M56" s="15"/>
     </row>
-    <row r="57" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:13" ht="55.5" customHeight="1">
       <c r="A57" s="15"/>
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
@@ -7536,7 +7662,7 @@
       <c r="L57" s="15"/>
       <c r="M57" s="15"/>
     </row>
-    <row r="58" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:13" ht="55.5" customHeight="1">
       <c r="A58" s="15"/>
       <c r="B58" s="15"/>
       <c r="C58" s="15"/>
@@ -7551,7 +7677,7 @@
       <c r="L58" s="15"/>
       <c r="M58" s="15"/>
     </row>
-    <row r="59" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:13" ht="55.5" customHeight="1">
       <c r="A59" s="15"/>
       <c r="B59" s="15"/>
       <c r="C59" s="15"/>
@@ -7566,7 +7692,7 @@
       <c r="L59" s="15"/>
       <c r="M59" s="15"/>
     </row>
-    <row r="60" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:13" ht="55.5" customHeight="1">
       <c r="A60" s="15"/>
       <c r="B60" s="15"/>
       <c r="C60" s="15"/>
@@ -7581,7 +7707,7 @@
       <c r="L60" s="15"/>
       <c r="M60" s="15"/>
     </row>
-    <row r="61" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:13" ht="55.5" customHeight="1">
       <c r="A61" s="15"/>
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
@@ -7596,7 +7722,7 @@
       <c r="L61" s="15"/>
       <c r="M61" s="15"/>
     </row>
-    <row r="62" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:13" ht="55.5" customHeight="1">
       <c r="A62" s="15"/>
       <c r="B62" s="15"/>
       <c r="C62" s="15"/>
@@ -7611,7 +7737,7 @@
       <c r="L62" s="15"/>
       <c r="M62" s="15"/>
     </row>
-    <row r="63" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:13" ht="55.5" customHeight="1">
       <c r="A63" s="15"/>
       <c r="B63" s="15"/>
       <c r="C63" s="15"/>
@@ -7626,7 +7752,7 @@
       <c r="L63" s="15"/>
       <c r="M63" s="15"/>
     </row>
-    <row r="64" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:13" ht="55.5" customHeight="1">
       <c r="A64" s="15"/>
       <c r="B64" s="15"/>
       <c r="C64" s="15"/>
@@ -7641,7 +7767,7 @@
       <c r="L64" s="15"/>
       <c r="M64" s="15"/>
     </row>
-    <row r="65" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:13" ht="55.5" customHeight="1">
       <c r="A65" s="15"/>
       <c r="B65" s="15"/>
       <c r="C65" s="15"/>
@@ -7656,7 +7782,7 @@
       <c r="L65" s="15"/>
       <c r="M65" s="15"/>
     </row>
-    <row r="66" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:13" ht="55.5" customHeight="1">
       <c r="A66" s="15"/>
       <c r="B66" s="15"/>
       <c r="C66" s="15"/>
@@ -7671,7 +7797,7 @@
       <c r="L66" s="15"/>
       <c r="M66" s="15"/>
     </row>
-    <row r="67" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:13" ht="55.5" customHeight="1">
       <c r="A67" s="15"/>
       <c r="B67" s="15"/>
       <c r="C67" s="15"/>
@@ -7686,7 +7812,7 @@
       <c r="L67" s="15"/>
       <c r="M67" s="15"/>
     </row>
-    <row r="68" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:13" ht="55.5" customHeight="1">
       <c r="A68" s="15"/>
       <c r="B68" s="15"/>
       <c r="C68" s="15"/>
@@ -7701,7 +7827,7 @@
       <c r="L68" s="15"/>
       <c r="M68" s="15"/>
     </row>
-    <row r="69" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:13" ht="55.5" customHeight="1">
       <c r="A69" s="15"/>
       <c r="B69" s="15"/>
       <c r="C69" s="15"/>
@@ -7716,7 +7842,7 @@
       <c r="L69" s="15"/>
       <c r="M69" s="15"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:13">
       <c r="A70" s="15"/>
       <c r="B70" s="15"/>
       <c r="C70" s="15"/>
@@ -7731,7 +7857,7 @@
       <c r="L70" s="15"/>
       <c r="M70" s="15"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:13">
       <c r="A71" s="15"/>
       <c r="B71" s="15"/>
       <c r="C71" s="15"/>
@@ -7746,7 +7872,7 @@
       <c r="L71" s="15"/>
       <c r="M71" s="15"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:13">
       <c r="A72" s="15"/>
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
@@ -7761,7 +7887,7 @@
       <c r="L72" s="15"/>
       <c r="M72" s="15"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:13">
       <c r="A73" s="15"/>
       <c r="B73" s="15"/>
       <c r="C73" s="15"/>
@@ -7776,7 +7902,7 @@
       <c r="L73" s="15"/>
       <c r="M73" s="15"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:13">
       <c r="A74" s="15"/>
       <c r="B74" s="15"/>
       <c r="C74" s="15"/>
@@ -7791,7 +7917,7 @@
       <c r="L74" s="15"/>
       <c r="M74" s="15"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:13">
       <c r="A75" s="15"/>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
